--- a/01_基本設計書/01_基本設計書/チーム1/基本設計書_社員情報一覧_陶麗麗.xlsx
+++ b/01_基本設計書/01_基本設計書/チーム1/基本設計書_社員情報一覧_陶麗麗.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/基本設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/新しいフォルダー/01_基本設計書/01_基本設計書/チーム1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04DE692C-9D32-4A38-B32B-7728E6392EE3}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB43D49-6162-468E-96B1-FE7381AF20A9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>基本設計書</t>
     <rPh sb="0" eb="2">
@@ -1013,7 +1013,7 @@
     <rPh sb="0" eb="2">
       <t>ハツバン</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</t>
@@ -1045,6 +1045,20 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>陶麗麗</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>レイレイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>チーム1</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -1052,15 +1066,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
-    <numFmt numFmtId="181" formatCode="##,###,##0.0##"/>
-    <numFmt numFmtId="182" formatCode="000000.00"/>
-    <numFmt numFmtId="183" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="184" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="##,###,##0.0##"/>
+    <numFmt numFmtId="180" formatCode="000000.00"/>
+    <numFmt numFmtId="181" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="182" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,12 +1151,6 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1364,7 +1372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1407,13 +1415,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1422,10 +1430,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1438,76 +1446,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1534,24 +1479,143 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,25 +1627,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1589,30 +1645,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1660,7 +1692,7 @@
         <xdr:cNvPr id="15" name="computr1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E83A511-2B64-48DC-9DC5-FD95A1BC6F6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1958,7 @@
         <xdr:cNvPr id="16" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A0E6B1-BA3A-4A46-B740-0DF415C4E4A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +2029,7 @@
         <xdr:cNvPr id="17" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E449EBA3-3764-4D68-88EC-BF001AA1EDF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2097,7 @@
         <xdr:cNvPr id="18" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D8BB27-2CA6-4A9F-BE11-40D588974EFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2165,7 @@
         <xdr:cNvPr id="19" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43173466-988F-4367-8849-9E823035BCFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2258,7 @@
         <xdr:cNvPr id="20" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EC19CB-B89D-4033-864B-97125B6397DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2326,7 @@
         <xdr:cNvPr id="21" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62076917-E9D8-4462-A558-7FA2683B4395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2394,7 @@
         <xdr:cNvPr id="22" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281BC295-350E-4EA6-9527-2532EFFFFEB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2465,7 @@
         <xdr:cNvPr id="23" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274C8FF4-69B8-4984-8257-F56E1A56848C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2551,7 @@
         <xdr:cNvPr id="24" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CCBA308-FB1A-418E-A6FD-A45B4866C3F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2667,7 @@
         <xdr:cNvPr id="25" name="Line 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB4EE75-656E-4C9C-AFDB-28710D772F02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2735,7 @@
         <xdr:cNvPr id="26" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A666874F-BD64-49E5-843B-A3852CA8B693}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2803,7 @@
         <xdr:cNvPr id="27" name="Line 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7ACC86-E8D0-4A4A-A3F2-3000E855B54D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,7 +2876,7 @@
         <xdr:cNvPr id="6" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E938E352-2AEE-4983-A9F8-39B409803D69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2944,7 @@
         <xdr:cNvPr id="7" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B732EE62-B4E1-4F11-AD20-575C44CBF309}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +3012,7 @@
         <xdr:cNvPr id="8" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F1AA8F-28AB-4F59-BF14-E19F1FB37DA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3075,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>205740</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3053,7 +3085,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15782344-9CBC-449E-9E36-4D0E5D04B7A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3115,7 +3147,7 @@
         <xdr:cNvPr id="9" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F12EFD-5CE6-442A-A712-2BD3354D20E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3220,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6B556C-FCF0-4037-BFD2-BEDEF719B4FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,7 +3288,7 @@
         <xdr:cNvPr id="3" name="Text Box 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D35A44B-5DC4-4B66-A77E-70B0E69E177F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3356,7 @@
         <xdr:cNvPr id="4" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D26AA47-79AF-4E99-8647-D7C889A9588F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3392,7 +3424,7 @@
         <xdr:cNvPr id="5" name="Text Box 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776A6889-4FB9-4258-8E42-8D4A12583FD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3492,7 @@
         <xdr:cNvPr id="6" name="Text Box 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415FFF40-C276-4445-90EF-CCD93E21A7E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3560,7 @@
         <xdr:cNvPr id="7" name="Text Box 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA89382-63D1-465D-AB57-610F751608F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3628,7 @@
         <xdr:cNvPr id="8" name="Text Box 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F271236A-B17D-426A-B727-32A6992060F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3664,7 +3696,7 @@
         <xdr:cNvPr id="9" name="Text Box 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7542AEAE-4DEE-4634-A445-D70112A7AAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3732,7 +3764,7 @@
         <xdr:cNvPr id="10" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42458914-FDF2-41A4-AF06-2740DD40E881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,14 +4117,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="4" width="3.69921875" style="24" customWidth="1"/>
-    <col min="5" max="6" width="3.69921875" style="54" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="34" customWidth="1"/>
     <col min="7" max="32" width="3.69921875" style="24" customWidth="1"/>
     <col min="33" max="36" width="3.59765625" style="24" customWidth="1"/>
     <col min="37" max="256" width="8.09765625" style="24"/>
@@ -4534,72 +4566,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="27"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
       <c r="AF4" s="28"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
       <c r="AF5" s="28"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -4771,121 +4803,123 @@
     </row>
     <row r="11" spans="1:176">
       <c r="A11" s="27"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="30" t="s">
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="30" t="s">
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="30" t="s">
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="55"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:176">
       <c r="A12" s="27"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="33" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="35"/>
-      <c r="AF12" s="55"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="35"/>
     </row>
     <row r="13" spans="1:176">
       <c r="A13" s="27"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="55"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="35"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
       <c r="A14" s="27"/>
@@ -5117,7 +5151,7 @@
     </row>
     <row r="21" spans="1:32" ht="12.75" customHeight="1">
       <c r="A21" s="27"/>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="26"/>
@@ -5185,673 +5219,728 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="44" t="s">
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="44" t="s">
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="44" t="s">
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="46"/>
+      <c r="AD23" s="91"/>
+      <c r="AE23" s="92"/>
       <c r="AF23" s="28"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="27"/>
-      <c r="B24" s="44">
+      <c r="B24" s="90">
         <v>1</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47">
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93">
         <v>44810</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="44" t="s">
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="46"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="92"/>
       <c r="AF24" s="28"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="27"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="46"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="91"/>
+      <c r="AE25" s="92"/>
       <c r="AF25" s="28"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="27"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="46"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+      <c r="S26" s="91"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="91"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="92"/>
       <c r="AF26" s="28"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="27"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="46"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="91"/>
+      <c r="AE27" s="92"/>
       <c r="AF27" s="28"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="27"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="46"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="92"/>
       <c r="AF28" s="28"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="27"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="46"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="91"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="91"/>
+      <c r="X29" s="91"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="91"/>
+      <c r="AA29" s="91"/>
+      <c r="AB29" s="92"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="91"/>
+      <c r="AE29" s="92"/>
       <c r="AF29" s="28"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="27"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="46"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="91"/>
+      <c r="AE30" s="92"/>
       <c r="AF30" s="28"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="27"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="46"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="92"/>
       <c r="AF31" s="28"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="27"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="46"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="91"/>
+      <c r="AA32" s="91"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="91"/>
+      <c r="AE32" s="92"/>
       <c r="AF32" s="28"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="27"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="46"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="92"/>
       <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="46"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="92"/>
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="91"/>
+      <c r="AE34" s="92"/>
       <c r="AF34" s="28"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="46"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="91"/>
+      <c r="AE35" s="92"/>
       <c r="AF35" s="28"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="27"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="46"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="91"/>
+      <c r="AB36" s="92"/>
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="91"/>
+      <c r="AE36" s="92"/>
       <c r="AF36" s="28"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="27"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="45"/>
-      <c r="AE37" s="46"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="91"/>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="92"/>
+      <c r="AC37" s="90"/>
+      <c r="AD37" s="91"/>
+      <c r="AE37" s="92"/>
       <c r="AF37" s="28"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="27"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="46"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="91"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="91"/>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="91"/>
+      <c r="AA38" s="91"/>
+      <c r="AB38" s="92"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="91"/>
+      <c r="AE38" s="92"/>
       <c r="AF38" s="28"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="27"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="45"/>
-      <c r="AE39" s="46"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="91"/>
+      <c r="S39" s="91"/>
+      <c r="T39" s="91"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+      <c r="X39" s="91"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="91"/>
+      <c r="AA39" s="91"/>
+      <c r="AB39" s="92"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="91"/>
+      <c r="AE39" s="92"/>
       <c r="AF39" s="28"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="27"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="46"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="91"/>
+      <c r="Q40" s="91"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="91"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="91"/>
+      <c r="Y40" s="91"/>
+      <c r="Z40" s="91"/>
+      <c r="AA40" s="91"/>
+      <c r="AB40" s="92"/>
+      <c r="AC40" s="90"/>
+      <c r="AD40" s="91"/>
+      <c r="AE40" s="92"/>
       <c r="AF40" s="28"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="51"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="51"/>
-      <c r="AE41" s="51"/>
-      <c r="AF41" s="53"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
+      <c r="AE41" s="31"/>
+      <c r="AF41" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="J26:AB26"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -5868,68 +5957,15 @@
     <mergeCell ref="J25:AB25"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5939,13 +5975,13 @@
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:AC2"/>
+      <selection activeCell="AF3" sqref="AF3:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="3.69921875" style="24" customWidth="1"/>
-    <col min="5" max="6" width="3.69921875" style="54" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="34" customWidth="1"/>
     <col min="7" max="33" width="3.69921875" style="24" customWidth="1"/>
     <col min="34" max="37" width="3.59765625" style="24" customWidth="1"/>
     <col min="38" max="256" width="8.09765625" style="24"/>
@@ -6141,200 +6177,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="30" t="s">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="57" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="32"/>
+      <c r="AG2" s="85"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="33" t="str">
+      <c r="A3" s="73" t="str">
         <f>[1]表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="33" t="str">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="73" t="str">
         <f>[1]表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="33" t="str">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="73" t="str">
         <f>[1]表紙!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="35"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="40"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="82"/>
     </row>
     <row r="5" spans="1:177" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="61"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="40"/>
       <c r="AH5" s="26"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
@@ -6481,39 +6519,39 @@
       <c r="FU5" s="9"/>
     </row>
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="64"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="43"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="27"/>
@@ -7561,42 +7599,42 @@
       <c r="AG39" s="28"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="53"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="33"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="26"/>
@@ -7703,54 +7741,54 @@
       <c r="AG43" s="28"/>
     </row>
     <row r="44" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="51"/>
-      <c r="AC44" s="51"/>
-      <c r="AD44" s="51"/>
-      <c r="AE44" s="51"/>
-      <c r="AF44" s="51"/>
-      <c r="AG44" s="53"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7760,14 +7798,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767E5D0F-EC1E-406F-8C52-B237834191D9}">
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4" style="24" customWidth="1"/>
-    <col min="5" max="6" width="4" style="54" customWidth="1"/>
+    <col min="5" max="6" width="4" style="34" customWidth="1"/>
     <col min="7" max="33" width="4" style="24" customWidth="1"/>
     <col min="34" max="37" width="3.59765625" style="24" customWidth="1"/>
     <col min="38" max="256" width="8.09765625" style="24"/>
@@ -7963,200 +8001,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="30" t="s">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="57" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="32"/>
+      <c r="AG2" s="85"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="33" t="str">
+      <c r="A3" s="73" t="str">
         <f>[1]表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="33" t="str">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="73" t="str">
         <f>[1]表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="33" t="str">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="73" t="str">
         <f>[1]表紙!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="35"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG3" s="111"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="40"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="113"/>
     </row>
     <row r="5" spans="1:177" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="61"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="40"/>
       <c r="AH5" s="26"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
@@ -8303,116 +8343,116 @@
       <c r="FU5" s="9"/>
     </row>
     <row r="6" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="64"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="43"/>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="67" t="s">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
       <c r="AG7" s="28"/>
     </row>
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
       <c r="AG8" s="28"/>
       <c r="AI8" s="24" t="s">
         <v>20</v>
@@ -8423,45 +8463,45 @@
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
       <c r="A9" s="27"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70" t="s">
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
       <c r="AG9" s="28"/>
       <c r="AJ9" s="24" t="s">
         <v>25</v>
@@ -8469,37 +8509,37 @@
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
       <c r="AG10" s="28"/>
       <c r="AJ10" s="24" t="s">
         <v>26</v>
@@ -8507,72 +8547,72 @@
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
       <c r="A11" s="27"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
       <c r="AG11" s="28"/>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="27"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
       <c r="AG12" s="28"/>
       <c r="AJ12" s="24" t="s">
         <v>39</v>
@@ -8580,37 +8620,37 @@
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="27"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
       <c r="AG13" s="28"/>
       <c r="AJ13" s="24" t="s">
         <v>40</v>
@@ -8618,1029 +8658,1029 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="27"/>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="100" t="s">
+      <c r="C14" s="99"/>
+      <c r="D14" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="100" t="s">
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="102"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="100" t="s">
+      <c r="I14" s="98"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="100" t="s">
+      <c r="L14" s="100"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="104"/>
-      <c r="P14" s="100" t="s">
+      <c r="O14" s="101"/>
+      <c r="P14" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="100" t="s">
+      <c r="Q14" s="98"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="102"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="100" t="s">
+      <c r="T14" s="98"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="72"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="51"/>
       <c r="AD14" s="26"/>
-      <c r="AG14" s="73"/>
-      <c r="AJ14" s="99" t="s">
+      <c r="AG14" s="52"/>
+      <c r="AJ14" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="27"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="81" t="s">
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="78" t="s">
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81" t="s">
+      <c r="I15" s="105"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="83"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="81" t="s">
+      <c r="L15" s="109"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="82"/>
-      <c r="P15" s="81" t="s">
+      <c r="O15" s="108"/>
+      <c r="P15" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="105" t="s">
+      <c r="Q15" s="109"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="106"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="78" t="s">
+      <c r="T15" s="70"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="85" t="s">
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="56" t="s">
         <v>38</v>
       </c>
       <c r="AD15" s="26"/>
-      <c r="AG15" s="73"/>
+      <c r="AG15" s="52"/>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
       <c r="A16" s="27"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="85"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="56"/>
       <c r="AD16" s="26"/>
-      <c r="AG16" s="73"/>
+      <c r="AG16" s="52"/>
       <c r="AJ16" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="12.75" customHeight="1">
       <c r="A17" s="27"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="85"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="56"/>
       <c r="AD17" s="26"/>
-      <c r="AG17" s="73"/>
+      <c r="AG17" s="52"/>
       <c r="AJ17" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="12.75" customHeight="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="85"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="56"/>
       <c r="AD18" s="26"/>
-      <c r="AG18" s="73"/>
+      <c r="AG18" s="52"/>
     </row>
     <row r="19" spans="1:36" ht="12.75" customHeight="1">
       <c r="A19" s="27"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="85"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="56"/>
       <c r="AD19" s="26"/>
-      <c r="AG19" s="73"/>
+      <c r="AG19" s="52"/>
       <c r="AJ19" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="12.75" customHeight="1">
       <c r="A20" s="27"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="85"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="56"/>
       <c r="AD20" s="26"/>
-      <c r="AG20" s="73"/>
+      <c r="AG20" s="52"/>
       <c r="AJ20" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="12.75" customHeight="1">
       <c r="A21" s="27"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="85"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="56"/>
       <c r="AD21" s="26"/>
-      <c r="AG21" s="73"/>
+      <c r="AG21" s="52"/>
     </row>
     <row r="22" spans="1:36" ht="12.75" customHeight="1">
       <c r="A22" s="27"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="85"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="56"/>
       <c r="AD22" s="26"/>
-      <c r="AG22" s="73"/>
+      <c r="AG22" s="52"/>
       <c r="AJ22" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="12.75" customHeight="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="85"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="56"/>
       <c r="AD23" s="26"/>
-      <c r="AG23" s="73"/>
+      <c r="AG23" s="52"/>
       <c r="AJ23" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="12.75" customHeight="1">
       <c r="A24" s="27"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="85"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="56"/>
       <c r="AD24" s="26"/>
-      <c r="AG24" s="73"/>
+      <c r="AG24" s="52"/>
     </row>
     <row r="25" spans="1:36" ht="12.75" customHeight="1">
       <c r="A25" s="27"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="85"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="56"/>
       <c r="AD25" s="26"/>
-      <c r="AG25" s="73"/>
+      <c r="AG25" s="52"/>
       <c r="AJ25" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="12.75" customHeight="1">
       <c r="A26" s="27"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="85"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="56"/>
       <c r="AD26" s="26"/>
-      <c r="AG26" s="73"/>
+      <c r="AG26" s="52"/>
       <c r="AJ26" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="12.75" customHeight="1">
       <c r="A27" s="27"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="85"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="56"/>
       <c r="AD27" s="26"/>
-      <c r="AG27" s="73"/>
+      <c r="AG27" s="52"/>
     </row>
     <row r="28" spans="1:36" ht="12.75" customHeight="1">
       <c r="A28" s="27"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="85"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="56"/>
       <c r="AD28" s="26"/>
-      <c r="AG28" s="73"/>
+      <c r="AG28" s="52"/>
     </row>
     <row r="29" spans="1:36" ht="12.75" customHeight="1">
       <c r="A29" s="27"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="85"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="56"/>
       <c r="AD29" s="26"/>
-      <c r="AG29" s="73"/>
-      <c r="AJ29" s="87"/>
+      <c r="AG29" s="52"/>
+      <c r="AJ29" s="58"/>
     </row>
     <row r="30" spans="1:36" ht="12.75" customHeight="1">
       <c r="A30" s="27"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="85"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="56"/>
       <c r="AD30" s="26"/>
-      <c r="AG30" s="73"/>
+      <c r="AG30" s="52"/>
     </row>
     <row r="31" spans="1:36" ht="12.75" customHeight="1">
       <c r="A31" s="27"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="85"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="56"/>
       <c r="AD31" s="26"/>
-      <c r="AG31" s="73"/>
+      <c r="AG31" s="52"/>
     </row>
     <row r="32" spans="1:36" ht="12.75" customHeight="1">
       <c r="A32" s="27"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="85"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="56"/>
       <c r="AD32" s="26"/>
-      <c r="AG32" s="73"/>
+      <c r="AG32" s="52"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
       <c r="A33" s="27"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="85"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="56"/>
       <c r="AD33" s="26"/>
-      <c r="AG33" s="73"/>
+      <c r="AG33" s="52"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="85"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="56"/>
       <c r="AD34" s="26"/>
-      <c r="AG34" s="73"/>
+      <c r="AG34" s="52"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="66"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="77"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="77"/>
-      <c r="AC35" s="85"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="53"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="56"/>
       <c r="AD35" s="26"/>
-      <c r="AG35" s="73"/>
+      <c r="AG35" s="52"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
       <c r="A36" s="27"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="77"/>
-      <c r="V36" s="84"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="77"/>
-      <c r="AC36" s="85"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="56"/>
       <c r="AD36" s="26"/>
-      <c r="AG36" s="73"/>
+      <c r="AG36" s="52"/>
     </row>
     <row r="37" spans="1:33" ht="12.75" customHeight="1">
       <c r="A37" s="27"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="77"/>
-      <c r="V37" s="84"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="77"/>
-      <c r="AC37" s="85"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="56"/>
       <c r="AD37" s="26"/>
-      <c r="AG37" s="73"/>
+      <c r="AG37" s="52"/>
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
       <c r="A38" s="27"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="77"/>
-      <c r="V38" s="84"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="77"/>
-      <c r="AC38" s="85"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="56"/>
       <c r="AD38" s="26"/>
-      <c r="AG38" s="73"/>
+      <c r="AG38" s="52"/>
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
       <c r="A39" s="27"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="77"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="77"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="84"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="77"/>
-      <c r="AC39" s="85"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="56"/>
       <c r="AD39" s="26"/>
-      <c r="AG39" s="73"/>
+      <c r="AG39" s="52"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="27"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="76"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="77"/>
-      <c r="V40" s="84"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="77"/>
-      <c r="AC40" s="85"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="53"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="56"/>
       <c r="AD40" s="26"/>
-      <c r="AG40" s="73"/>
+      <c r="AG40" s="52"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
       <c r="A41" s="27"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="89"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="89"/>
-      <c r="Z41" s="89"/>
-      <c r="AA41" s="89"/>
-      <c r="AB41" s="91"/>
-      <c r="AC41" s="92" t="s">
+      <c r="B41" s="59"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="63" t="s">
         <v>50</v>
       </c>
       <c r="AD41" s="26"/>
-      <c r="AG41" s="73"/>
+      <c r="AG41" s="52"/>
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
       <c r="A42" s="27"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="66"/>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
       <c r="AG42" s="28"/>
     </row>
     <row r="43" spans="1:33" ht="12.75" customHeight="1">
@@ -9662,42 +9702,52 @@
       <c r="AG43" s="28"/>
     </row>
     <row r="44" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="51"/>
-      <c r="AC44" s="51"/>
-      <c r="AD44" s="51"/>
-      <c r="AE44" s="51"/>
-      <c r="AF44" s="51"/>
-      <c r="AG44" s="53"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="B15:C15"/>
@@ -9713,18 +9763,8 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:R14"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -9763,7 +9803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF7BF1D-B477-4EE2-A6FA-CBEE925D8718}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -10274,19 +10314,19 @@
       <c r="B6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="65" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="13">
         <v>1234</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="66" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="114" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -10304,7 +10344,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="97"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="13" t="s">
         <v>61</v>
       </c>
@@ -10312,15 +10352,15 @@
         <v>66</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="95">
+      <c r="E8" s="66">
         <v>1234</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="66" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="98"/>
+      <c r="B10" s="67"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
@@ -10419,7 +10459,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="66" t="s">
         <v>78</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -10437,7 +10477,7 @@
         <v>82</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="66" t="s">
         <v>83</v>
       </c>
       <c r="F19" s="21">
@@ -10455,7 +10495,7 @@
         <v>85</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="66" t="s">
         <v>83</v>
       </c>
       <c r="F20" s="22">
@@ -10473,14 +10513,15 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="98"/>
+      <c r="B25" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A7:A8"/>
   </mergeCells>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/01_基本設計書/01_基本設計書/チーム1/基本設計書_社員情報一覧_陶麗麗.xlsx
+++ b/01_基本設計書/01_基本設計書/チーム1/基本設計書_社員情報一覧_陶麗麗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/新しいフォルダー/01_基本設計書/01_基本設計書/チーム1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB43D49-6162-468E-96B1-FE7381AF20A9}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B0D39D-6C8E-44C2-8C30-62F4E9460C66}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>基本設計書</t>
     <rPh sb="0" eb="2">
@@ -1009,13 +1009,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>初版</t>
-    <rPh sb="0" eb="2">
-      <t>ハツバン</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -1058,6 +1051,20 @@
   </si>
   <si>
     <t>チーム1</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ver0.1</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -1065,7 +1072,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
@@ -1073,6 +1080,7 @@
     <numFmt numFmtId="180" formatCode="000000.00"/>
     <numFmt numFmtId="181" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="182" formatCode="hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1372,7 +1380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1513,60 +1521,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1585,8 +1539,62 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1627,23 +1635,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4117,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
@@ -4566,72 +4571,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="27"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
       <c r="AF4" s="28"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
       <c r="AF5" s="28"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -4803,122 +4808,122 @@
     </row>
     <row r="11" spans="1:176">
       <c r="A11" s="27"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="83" t="s">
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="83" t="s">
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83" t="s">
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="83" t="s">
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="85"/>
+      <c r="AE11" s="80"/>
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:176">
       <c r="A12" s="27"/>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="73" t="s">
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE12" s="80"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE12" s="89"/>
       <c r="AF12" s="35"/>
     </row>
     <row r="13" spans="1:176">
       <c r="A13" s="27"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="91"/>
       <c r="AF13" s="35"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
@@ -5219,630 +5224,630 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="90" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="90" t="s">
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
-      <c r="T23" s="91"/>
-      <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="91"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="90" t="s">
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AD23" s="91"/>
-      <c r="AE23" s="92"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="74"/>
       <c r="AF23" s="28"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="27"/>
-      <c r="B24" s="90">
-        <v>1</v>
-      </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93">
+      <c r="B24" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="112">
         <v>44810</v>
       </c>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="91"/>
-      <c r="AA24" s="91"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="90" t="s">
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="AD24" s="91"/>
-      <c r="AE24" s="92"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="74"/>
       <c r="AF24" s="28"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="27"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="91"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="91"/>
-      <c r="AA25" s="91"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="92"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="74"/>
       <c r="AF25" s="28"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="27"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="91"/>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="92"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="74"/>
       <c r="AF26" s="28"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="27"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="91"/>
-      <c r="Y27" s="91"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="92"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="74"/>
       <c r="AF27" s="28"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="27"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="92"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="74"/>
       <c r="AF28" s="28"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="27"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="91"/>
-      <c r="Y29" s="91"/>
-      <c r="Z29" s="91"/>
-      <c r="AA29" s="91"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="91"/>
-      <c r="AE29" s="92"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="74"/>
       <c r="AF29" s="28"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="27"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="91"/>
-      <c r="AE30" s="92"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="74"/>
       <c r="AF30" s="28"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="27"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="92"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="74"/>
       <c r="AF31" s="28"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="27"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="91"/>
-      <c r="AA32" s="91"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="91"/>
-      <c r="AE32" s="92"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="74"/>
       <c r="AF32" s="28"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="27"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="90"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="92"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="74"/>
       <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="90"/>
-      <c r="AD34" s="91"/>
-      <c r="AE34" s="92"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="74"/>
       <c r="AF34" s="28"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="91"/>
-      <c r="AA35" s="91"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="91"/>
-      <c r="AE35" s="92"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="74"/>
       <c r="AF35" s="28"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="27"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="91"/>
-      <c r="X36" s="91"/>
-      <c r="Y36" s="91"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="91"/>
-      <c r="AB36" s="92"/>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="91"/>
-      <c r="AE36" s="92"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="74"/>
       <c r="AF36" s="28"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="27"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="91"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="92"/>
-      <c r="AC37" s="90"/>
-      <c r="AD37" s="91"/>
-      <c r="AE37" s="92"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="74"/>
       <c r="AF37" s="28"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="27"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="91"/>
-      <c r="X38" s="91"/>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="91"/>
-      <c r="AA38" s="91"/>
-      <c r="AB38" s="92"/>
-      <c r="AC38" s="90"/>
-      <c r="AD38" s="91"/>
-      <c r="AE38" s="92"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="74"/>
       <c r="AF38" s="28"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="27"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
-      <c r="T39" s="91"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="91"/>
-      <c r="W39" s="91"/>
-      <c r="X39" s="91"/>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="91"/>
-      <c r="AA39" s="91"/>
-      <c r="AB39" s="92"/>
-      <c r="AC39" s="90"/>
-      <c r="AD39" s="91"/>
-      <c r="AE39" s="92"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="74"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="74"/>
       <c r="AF39" s="28"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="27"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="91"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="91"/>
-      <c r="W40" s="91"/>
-      <c r="X40" s="91"/>
-      <c r="Y40" s="91"/>
-      <c r="Z40" s="91"/>
-      <c r="AA40" s="91"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="90"/>
-      <c r="AD40" s="91"/>
-      <c r="AE40" s="92"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
+      <c r="AB40" s="74"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="74"/>
       <c r="AF40" s="28"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
@@ -5881,66 +5886,13 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="J26:AB26"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -5957,13 +5909,66 @@
     <mergeCell ref="J25:AB25"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5975,7 +5980,7 @@
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AG4"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6177,167 +6182,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="80"/>
       <c r="AD2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="83" t="s">
+      <c r="AF2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="85"/>
+      <c r="AG2" s="80"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="73" t="str">
+      <c r="A3" s="81" t="str">
         <f>[1]表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="73" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="81" t="str">
         <f>[1]表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="73" t="str">
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="81" t="str">
         <f>[1]表紙!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" s="80"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG3" s="89"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="91"/>
     </row>
     <row r="5" spans="1:177" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="38"/>
@@ -7777,16 +7782,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7799,7 +7804,7 @@
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AG4"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -8001,167 +8006,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="80"/>
       <c r="AD2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="83" t="s">
+      <c r="AF2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="85"/>
+      <c r="AG2" s="80"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="73" t="str">
+      <c r="A3" s="81" t="str">
         <f>[1]表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="73" t="str">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="81" t="str">
         <f>[1]表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="73" t="str">
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="81" t="str">
         <f>[1]表紙!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG3" s="111"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG3" s="83"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="113"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="86"/>
     </row>
     <row r="5" spans="1:177" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="38"/>
@@ -8503,7 +8508,7 @@
       <c r="AE9" s="45"/>
       <c r="AF9" s="45"/>
       <c r="AG9" s="28"/>
-      <c r="AJ9" s="24" t="s">
+      <c r="AK9" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -8541,7 +8546,7 @@
       <c r="AE10" s="45"/>
       <c r="AF10" s="45"/>
       <c r="AG10" s="28"/>
-      <c r="AJ10" s="24" t="s">
+      <c r="AK10" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8652,7 +8657,7 @@
       <c r="AE13" s="45"/>
       <c r="AF13" s="45"/>
       <c r="AG13" s="28"/>
-      <c r="AJ13" s="24" t="s">
+      <c r="AK13" s="24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8704,15 +8709,15 @@
       <c r="AC14" s="51"/>
       <c r="AD14" s="26"/>
       <c r="AG14" s="52"/>
-      <c r="AJ14" s="68" t="s">
+      <c r="AK14" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="AK14" s="68"/>
       <c r="AL14" s="68"/>
       <c r="AM14" s="68"/>
       <c r="AN14" s="68"/>
       <c r="AO14" s="68"/>
       <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="27"/>
@@ -8799,7 +8804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="12.75" customHeight="1">
+    <row r="17" spans="1:37" ht="12.75" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="53"/>
       <c r="C17" s="45"/>
@@ -8831,11 +8836,11 @@
       <c r="AC17" s="56"/>
       <c r="AD17" s="26"/>
       <c r="AG17" s="52"/>
-      <c r="AJ17" s="24" t="s">
+      <c r="AK17" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="12.75" customHeight="1">
+    <row r="18" spans="1:37" ht="12.75" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="53"/>
       <c r="C18" s="45"/>
@@ -8868,7 +8873,7 @@
       <c r="AD18" s="26"/>
       <c r="AG18" s="52"/>
     </row>
-    <row r="19" spans="1:36" ht="12.75" customHeight="1">
+    <row r="19" spans="1:37" ht="12.75" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="53"/>
       <c r="C19" s="45"/>
@@ -8904,7 +8909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="12.75" customHeight="1">
+    <row r="20" spans="1:37" ht="12.75" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="53"/>
       <c r="C20" s="45"/>
@@ -8936,11 +8941,11 @@
       <c r="AC20" s="56"/>
       <c r="AD20" s="26"/>
       <c r="AG20" s="52"/>
-      <c r="AJ20" s="24" t="s">
+      <c r="AK20" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="12.75" customHeight="1">
+    <row r="21" spans="1:37" ht="12.75" customHeight="1">
       <c r="A21" s="27"/>
       <c r="B21" s="53"/>
       <c r="C21" s="45"/>
@@ -8973,7 +8978,7 @@
       <c r="AD21" s="26"/>
       <c r="AG21" s="52"/>
     </row>
-    <row r="22" spans="1:36" ht="12.75" customHeight="1">
+    <row r="22" spans="1:37" ht="12.75" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="53"/>
       <c r="C22" s="45"/>
@@ -9009,7 +9014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="12.75" customHeight="1">
+    <row r="23" spans="1:37" ht="12.75" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="53"/>
       <c r="C23" s="45"/>
@@ -9041,11 +9046,11 @@
       <c r="AC23" s="56"/>
       <c r="AD23" s="26"/>
       <c r="AG23" s="52"/>
-      <c r="AJ23" s="24" t="s">
+      <c r="AK23" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="12.75" customHeight="1">
+    <row r="24" spans="1:37" ht="12.75" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="53"/>
       <c r="C24" s="45"/>
@@ -9078,7 +9083,7 @@
       <c r="AD24" s="26"/>
       <c r="AG24" s="52"/>
     </row>
-    <row r="25" spans="1:36" ht="12.75" customHeight="1">
+    <row r="25" spans="1:37" ht="12.75" customHeight="1">
       <c r="A25" s="27"/>
       <c r="B25" s="53"/>
       <c r="C25" s="45"/>
@@ -9114,7 +9119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="12.75" customHeight="1">
+    <row r="26" spans="1:37" ht="12.75" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="53"/>
       <c r="C26" s="45"/>
@@ -9146,11 +9151,11 @@
       <c r="AC26" s="56"/>
       <c r="AD26" s="26"/>
       <c r="AG26" s="52"/>
-      <c r="AJ26" s="24" t="s">
+      <c r="AK26" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="12.75" customHeight="1">
+    <row r="27" spans="1:37" ht="12.75" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="53"/>
       <c r="C27" s="45"/>
@@ -9183,7 +9188,7 @@
       <c r="AD27" s="26"/>
       <c r="AG27" s="52"/>
     </row>
-    <row r="28" spans="1:36" ht="12.75" customHeight="1">
+    <row r="28" spans="1:37" ht="12.75" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="53"/>
       <c r="C28" s="45"/>
@@ -9216,7 +9221,7 @@
       <c r="AD28" s="26"/>
       <c r="AG28" s="52"/>
     </row>
-    <row r="29" spans="1:36" ht="12.75" customHeight="1">
+    <row r="29" spans="1:37" ht="12.75" customHeight="1">
       <c r="A29" s="27"/>
       <c r="B29" s="53"/>
       <c r="C29" s="45"/>
@@ -9250,7 +9255,7 @@
       <c r="AG29" s="52"/>
       <c r="AJ29" s="58"/>
     </row>
-    <row r="30" spans="1:36" ht="12.75" customHeight="1">
+    <row r="30" spans="1:37" ht="12.75" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="53"/>
       <c r="C30" s="45"/>
@@ -9283,7 +9288,7 @@
       <c r="AD30" s="26"/>
       <c r="AG30" s="52"/>
     </row>
-    <row r="31" spans="1:36" ht="12.75" customHeight="1">
+    <row r="31" spans="1:37" ht="12.75" customHeight="1">
       <c r="A31" s="27"/>
       <c r="B31" s="53"/>
       <c r="C31" s="45"/>
@@ -9316,7 +9321,7 @@
       <c r="AD31" s="26"/>
       <c r="AG31" s="52"/>
     </row>
-    <row r="32" spans="1:36" ht="12.75" customHeight="1">
+    <row r="32" spans="1:37" ht="12.75" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="53"/>
       <c r="C32" s="45"/>
@@ -9738,16 +9743,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="B15:C15"/>
@@ -9763,6 +9758,16 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:R14"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9803,9 +9808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF7BF1D-B477-4EE2-A6FA-CBEE925D8718}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="13.2"/>
   <cols>
@@ -10326,7 +10329,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="110" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -10344,7 +10347,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="115"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="13" t="s">
         <v>61</v>
       </c>

--- a/01_基本設計書/01_基本設計書/チーム1/基本設計書_社員情報一覧_陶麗麗.xlsx
+++ b/01_基本設計書/01_基本設計書/チーム1/基本設計書_社員情報一覧_陶麗麗.xlsx
@@ -1080,7 +1080,7 @@
     <numFmt numFmtId="180" formatCode="000000.00"/>
     <numFmt numFmtId="181" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="182" formatCode="hh:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="187" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="183" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1521,32 +1521,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,9 +1542,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1581,20 +1554,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1635,20 +1632,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4122,8 +4122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
@@ -4571,72 +4571,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="27"/>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
       <c r="AF4" s="28"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
       <c r="AF5" s="28"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -4808,122 +4808,122 @@
     </row>
     <row r="11" spans="1:176">
       <c r="A11" s="27"/>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="78" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="78" t="s">
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="78" t="s">
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="78" t="s">
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="80"/>
+      <c r="AE11" s="85"/>
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:176">
       <c r="A12" s="27"/>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="81" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="88" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="88" t="s">
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="AE12" s="89"/>
+      <c r="AE12" s="80"/>
       <c r="AF12" s="35"/>
     </row>
     <row r="13" spans="1:176">
       <c r="A13" s="27"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="91"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="82"/>
       <c r="AF13" s="35"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
@@ -5224,630 +5224,630 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="72" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="72" t="s">
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="72" t="s">
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="74"/>
+      <c r="AD23" s="87"/>
+      <c r="AE23" s="88"/>
       <c r="AF23" s="28"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="27"/>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="112">
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="92">
         <v>44810</v>
       </c>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="72" t="s">
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="72" t="s">
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="74"/>
+      <c r="AD24" s="87"/>
+      <c r="AE24" s="88"/>
       <c r="AF24" s="28"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="27"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="74"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="87"/>
+      <c r="AE25" s="88"/>
       <c r="AF25" s="28"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="27"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="74"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="88"/>
       <c r="AF26" s="28"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="27"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="74"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="88"/>
       <c r="AF27" s="28"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="27"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="74"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="87"/>
+      <c r="AE28" s="88"/>
       <c r="AF28" s="28"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="27"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="74"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="87"/>
+      <c r="AE29" s="88"/>
       <c r="AF29" s="28"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="27"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="74"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="87"/>
+      <c r="AE30" s="88"/>
       <c r="AF30" s="28"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="27"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="73"/>
-      <c r="AE31" s="74"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="86"/>
+      <c r="AD31" s="87"/>
+      <c r="AE31" s="88"/>
       <c r="AF31" s="28"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="27"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="74"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="74"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="86"/>
+      <c r="AD32" s="87"/>
+      <c r="AE32" s="88"/>
       <c r="AF32" s="28"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="27"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="74"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="86"/>
+      <c r="AD33" s="87"/>
+      <c r="AE33" s="88"/>
       <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="73"/>
-      <c r="AE34" s="74"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="86"/>
+      <c r="AD34" s="87"/>
+      <c r="AE34" s="88"/>
       <c r="AF34" s="28"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="74"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="87"/>
+      <c r="AE35" s="88"/>
       <c r="AF35" s="28"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="27"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="73"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="73"/>
-      <c r="AE36" s="74"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="87"/>
+      <c r="AB36" s="88"/>
+      <c r="AC36" s="86"/>
+      <c r="AD36" s="87"/>
+      <c r="AE36" s="88"/>
       <c r="AF36" s="28"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="27"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="74"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="73"/>
-      <c r="AE37" s="74"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="87"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="86"/>
+      <c r="AD37" s="87"/>
+      <c r="AE37" s="88"/>
       <c r="AF37" s="28"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="27"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="73"/>
-      <c r="AA38" s="73"/>
-      <c r="AB38" s="74"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="73"/>
-      <c r="AE38" s="74"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="87"/>
+      <c r="AB38" s="88"/>
+      <c r="AC38" s="86"/>
+      <c r="AD38" s="87"/>
+      <c r="AE38" s="88"/>
       <c r="AF38" s="28"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="27"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="73"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="73"/>
-      <c r="Y39" s="73"/>
-      <c r="Z39" s="73"/>
-      <c r="AA39" s="73"/>
-      <c r="AB39" s="74"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="73"/>
-      <c r="AE39" s="74"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="87"/>
+      <c r="U39" s="87"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="87"/>
+      <c r="Y39" s="87"/>
+      <c r="Z39" s="87"/>
+      <c r="AA39" s="87"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="86"/>
+      <c r="AD39" s="87"/>
+      <c r="AE39" s="88"/>
       <c r="AF39" s="28"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="27"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="73"/>
-      <c r="AA40" s="73"/>
-      <c r="AB40" s="74"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="73"/>
-      <c r="AE40" s="74"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
+      <c r="R40" s="87"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="87"/>
+      <c r="U40" s="87"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="87"/>
+      <c r="X40" s="87"/>
+      <c r="Y40" s="87"/>
+      <c r="Z40" s="87"/>
+      <c r="AA40" s="87"/>
+      <c r="AB40" s="88"/>
+      <c r="AC40" s="86"/>
+      <c r="AD40" s="87"/>
+      <c r="AE40" s="88"/>
       <c r="AF40" s="28"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
@@ -5886,13 +5886,66 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
     <mergeCell ref="J26:AB26"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -5909,66 +5962,13 @@
     <mergeCell ref="J25:AB25"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6182,167 +6182,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="78" t="s">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="80"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85"/>
       <c r="AD2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="78" t="s">
+      <c r="AF2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="80"/>
+      <c r="AG2" s="85"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="81" t="str">
+      <c r="A3" s="73" t="str">
         <f>[1]表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="81" t="str">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="73" t="str">
         <f>[1]表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="81" t="str">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="73" t="str">
         <f>[1]表紙!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="88" t="s">
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="89"/>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="91"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="82"/>
     </row>
     <row r="5" spans="1:177" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="38"/>
@@ -7782,16 +7782,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8006,167 +8006,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="95"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="78" t="s">
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="80"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85"/>
       <c r="AD2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="78" t="s">
+      <c r="AF2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="80"/>
+      <c r="AG2" s="85"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="81" t="str">
+      <c r="A3" s="73" t="str">
         <f>[1]表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="81" t="str">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="73" t="str">
         <f>[1]表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="81" t="str">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="73" t="str">
         <f>[1]表紙!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="81" t="s">
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="83"/>
+      <c r="AG3" s="75"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="95"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="86"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="78"/>
     </row>
     <row r="5" spans="1:177" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="38"/>
@@ -8663,49 +8663,49 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="27"/>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="97" t="s">
+      <c r="C14" s="98"/>
+      <c r="D14" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="97" t="s">
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="97" t="s">
+      <c r="I14" s="97"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="97" t="s">
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="101"/>
-      <c r="P14" s="97" t="s">
+      <c r="O14" s="100"/>
+      <c r="P14" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="97" t="s">
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="98"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="97" t="s">
+      <c r="T14" s="97"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="101"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="100"/>
       <c r="AC14" s="51"/>
       <c r="AD14" s="26"/>
       <c r="AG14" s="52"/>
@@ -8721,47 +8721,47 @@
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="27"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="107" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="104" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="105"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107" t="s">
+      <c r="I15" s="104"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="107" t="s">
+      <c r="L15" s="108"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="108"/>
-      <c r="P15" s="107" t="s">
+      <c r="O15" s="107"/>
+      <c r="P15" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="107"/>
       <c r="S15" s="69" t="s">
         <v>36</v>
       </c>
       <c r="T15" s="70"/>
       <c r="U15" s="71"/>
-      <c r="V15" s="104" t="s">
+      <c r="V15" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="106"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="105"/>
       <c r="AC15" s="56" t="s">
         <v>38</v>
       </c>
@@ -9743,6 +9743,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="B15:C15"/>
@@ -9758,16 +9768,6 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:R14"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10329,7 +10329,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="113" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -10347,7 +10347,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="111"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="13" t="s">
         <v>61</v>
       </c>

--- a/01_基本設計書/01_基本設計書/チーム1/基本設計書_社員情報一覧_陶麗麗.xlsx
+++ b/01_基本設計書/01_基本設計書/チーム1/基本設計書_社員情報一覧_陶麗麗.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/新しいフォルダー/01_基本設計書/01_基本設計書/チーム1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B0D39D-6C8E-44C2-8C30-62F4E9460C66}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_AD4D066CA252ABDACC1048F52190C60473EEDF55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09EFBCE9-E673-4F46-94B3-0B543EB21482}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>基本設計書</t>
     <rPh sb="0" eb="2">
@@ -198,10 +198,6 @@
     <rPh sb="0" eb="2">
       <t>ショゾク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>BB（１０桁まで）</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1380,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1521,8 +1517,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1542,6 +1571,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1554,44 +1586,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1632,24 +1640,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1675,6 +1672,10 @@
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="26" noThreeD="1" sel="0" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3202,6 +3203,64 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3078" name="Drop Down 6" descr="BB（１０桁まで）" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53AC01EF-67D7-D56A-29CB-8F4223E576B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4120,10 +4179,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:FT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12"/>
@@ -4571,72 +4631,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="27"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
       <c r="AF4" s="28"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
       <c r="AF5" s="28"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -4808,122 +4868,122 @@
     </row>
     <row r="11" spans="1:176">
       <c r="A11" s="27"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="83" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="83" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="83" t="s">
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="83" t="s">
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="85"/>
+      <c r="AE11" s="83"/>
       <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:176">
       <c r="A12" s="27"/>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="73" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE12" s="80"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE12" s="92"/>
       <c r="AF12" s="35"/>
     </row>
     <row r="13" spans="1:176">
       <c r="A13" s="27"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="82"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="94"/>
       <c r="AF13" s="35"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
@@ -5224,630 +5284,630 @@
     </row>
     <row r="23" spans="1:32" ht="12.75" customHeight="1">
       <c r="A23" s="27"/>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="86" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="86" t="s">
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="86" t="s">
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="88"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="74"/>
       <c r="AF23" s="28"/>
     </row>
     <row r="24" spans="1:32" ht="12.75" customHeight="1">
       <c r="A24" s="27"/>
-      <c r="B24" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="92">
+      <c r="B24" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75">
         <v>44810</v>
       </c>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="86" t="s">
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="88"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="74"/>
       <c r="AF24" s="28"/>
     </row>
     <row r="25" spans="1:32" ht="12.75" customHeight="1">
       <c r="A25" s="27"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="88"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="74"/>
       <c r="AF25" s="28"/>
     </row>
     <row r="26" spans="1:32" ht="12.75" customHeight="1">
       <c r="A26" s="27"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="88"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="74"/>
       <c r="AF26" s="28"/>
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="27"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="88"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="74"/>
       <c r="AF27" s="28"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="27"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="88"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="74"/>
       <c r="AF28" s="28"/>
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="27"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="88"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="74"/>
       <c r="AF29" s="28"/>
     </row>
     <row r="30" spans="1:32" ht="12.75" customHeight="1">
       <c r="A30" s="27"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="88"/>
-      <c r="AC30" s="86"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="88"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="74"/>
       <c r="AF30" s="28"/>
     </row>
     <row r="31" spans="1:32" ht="12.75" customHeight="1">
       <c r="A31" s="27"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="86"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="88"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="74"/>
       <c r="AF31" s="28"/>
     </row>
     <row r="32" spans="1:32" ht="12.75" customHeight="1">
       <c r="A32" s="27"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="88"/>
-      <c r="AC32" s="86"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="88"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="74"/>
       <c r="AF32" s="28"/>
     </row>
     <row r="33" spans="1:32" ht="12.75" customHeight="1">
       <c r="A33" s="27"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="86"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="88"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="74"/>
       <c r="AF33" s="28"/>
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="87"/>
-      <c r="AB34" s="88"/>
-      <c r="AC34" s="86"/>
-      <c r="AD34" s="87"/>
-      <c r="AE34" s="88"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="74"/>
       <c r="AF34" s="28"/>
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="27"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="87"/>
-      <c r="AB35" s="88"/>
-      <c r="AC35" s="86"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="88"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="74"/>
       <c r="AF35" s="28"/>
     </row>
     <row r="36" spans="1:32" ht="12.75" customHeight="1">
       <c r="A36" s="27"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="87"/>
-      <c r="W36" s="87"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="87"/>
-      <c r="AA36" s="87"/>
-      <c r="AB36" s="88"/>
-      <c r="AC36" s="86"/>
-      <c r="AD36" s="87"/>
-      <c r="AE36" s="88"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="74"/>
       <c r="AF36" s="28"/>
     </row>
     <row r="37" spans="1:32" ht="12.75" customHeight="1">
       <c r="A37" s="27"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="87"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="87"/>
-      <c r="Z37" s="87"/>
-      <c r="AA37" s="87"/>
-      <c r="AB37" s="88"/>
-      <c r="AC37" s="86"/>
-      <c r="AD37" s="87"/>
-      <c r="AE37" s="88"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="74"/>
       <c r="AF37" s="28"/>
     </row>
     <row r="38" spans="1:32" ht="12.75" customHeight="1">
       <c r="A38" s="27"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="87"/>
-      <c r="X38" s="87"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="87"/>
-      <c r="AA38" s="87"/>
-      <c r="AB38" s="88"/>
-      <c r="AC38" s="86"/>
-      <c r="AD38" s="87"/>
-      <c r="AE38" s="88"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="74"/>
       <c r="AF38" s="28"/>
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="27"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="88"/>
-      <c r="AC39" s="86"/>
-      <c r="AD39" s="87"/>
-      <c r="AE39" s="88"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="74"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="74"/>
       <c r="AF39" s="28"/>
     </row>
     <row r="40" spans="1:32" ht="12.75" customHeight="1">
       <c r="A40" s="27"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="87"/>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="87"/>
-      <c r="W40" s="87"/>
-      <c r="X40" s="87"/>
-      <c r="Y40" s="87"/>
-      <c r="Z40" s="87"/>
-      <c r="AA40" s="87"/>
-      <c r="AB40" s="88"/>
-      <c r="AC40" s="86"/>
-      <c r="AD40" s="87"/>
-      <c r="AE40" s="88"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
+      <c r="AB40" s="74"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="74"/>
       <c r="AF40" s="28"/>
     </row>
     <row r="41" spans="1:32" ht="12.75" customHeight="1">
@@ -5886,66 +5946,13 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="B4:AE5"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="AD12:AE13"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="M12:AA13"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC13"/>
     <mergeCell ref="J26:AB26"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="AD11:AE11"/>
@@ -5962,13 +5969,66 @@
     <mergeCell ref="J25:AB25"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B4:AE5"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="AD12:AE13"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="M12:AA13"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB12:AC13"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5977,6 +6037,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0062A8-7630-4414-A9F4-CD0E9FB1E983}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:FU44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6219,130 +6280,130 @@
       <c r="AG1" s="95"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="83"/>
       <c r="AD2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="83" t="s">
+      <c r="AF2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="85"/>
+      <c r="AG2" s="83"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="73" t="str">
+      <c r="A3" s="84" t="str">
         <f>[1]表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="73" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="84" t="str">
         <f>[1]表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="73" t="str">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="84" t="str">
         <f>[1]表紙!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG3" s="80"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG3" s="92"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="82"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="94"/>
     </row>
     <row r="5" spans="1:177" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="38"/>
@@ -7782,16 +7843,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7801,10 +7862,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767E5D0F-EC1E-406F-8C52-B237834191D9}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:FU44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
@@ -8043,130 +8105,130 @@
       <c r="AG1" s="95"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="83"/>
       <c r="AD2" s="36" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="37"/>
-      <c r="AF2" s="83" t="s">
+      <c r="AF2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="85"/>
+      <c r="AG2" s="83"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="73" t="str">
+      <c r="A3" s="84" t="str">
         <f>[1]表紙!B12</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="73" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="84" t="str">
         <f>[1]表紙!G12</f>
         <v>基本情報管理</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="73" t="str">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="84" t="str">
         <f>[1]表紙!M12</f>
         <v>ログイン（画面）／社員情報一覧（画面）／基本情報登録（画面）</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG3" s="75"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="86"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="111"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="78"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="89"/>
     </row>
     <row r="5" spans="1:177" s="6" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="38"/>
@@ -8364,7 +8426,7 @@
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
+      <c r="Q6" s="45"/>
       <c r="R6" s="42"/>
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
@@ -8407,12 +8469,10 @@
       <c r="P7" s="45"/>
       <c r="Q7" s="45"/>
       <c r="R7" s="45"/>
-      <c r="S7" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
       <c r="W7" s="45"/>
       <c r="X7" s="45"/>
       <c r="Y7" s="45"/>
@@ -8444,7 +8504,6 @@
       <c r="P8" s="45"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
       <c r="T8" s="45"/>
       <c r="U8" s="45"/>
       <c r="V8" s="45"/>
@@ -8460,31 +8519,31 @@
       <c r="AF8" s="45"/>
       <c r="AG8" s="28"/>
       <c r="AI8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ8" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="AJ8" s="24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
       <c r="G9" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="48"/>
       <c r="J9" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="47"/>
       <c r="M9" s="48"/>
@@ -8492,8 +8551,6 @@
       <c r="O9" s="45"/>
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
       <c r="T9" s="45"/>
       <c r="U9" s="49"/>
       <c r="V9" s="49"/>
@@ -8509,7 +8566,7 @@
       <c r="AF9" s="45"/>
       <c r="AG9" s="28"/>
       <c r="AK9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
@@ -8532,7 +8589,6 @@
       <c r="Q10" s="45"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
       <c r="U10" s="45"/>
       <c r="V10" s="45"/>
       <c r="W10" s="45"/>
@@ -8547,7 +8603,7 @@
       <c r="AF10" s="45"/>
       <c r="AG10" s="28"/>
       <c r="AK10" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
@@ -8620,7 +8676,7 @@
       <c r="AF12" s="45"/>
       <c r="AG12" s="28"/>
       <c r="AJ12" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
@@ -8658,59 +8714,59 @@
       <c r="AF13" s="45"/>
       <c r="AG13" s="28"/>
       <c r="AK13" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="27"/>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="102"/>
+      <c r="D14" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="96" t="s">
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="101"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="96" t="s">
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="96" t="s">
+      <c r="O14" s="104"/>
+      <c r="P14" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="100"/>
-      <c r="P14" s="96" t="s">
+      <c r="Q14" s="101"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="101"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="T14" s="97"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="100"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="104"/>
       <c r="AC14" s="51"/>
       <c r="AD14" s="26"/>
       <c r="AG14" s="52"/>
       <c r="AK14" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL14" s="68"/>
       <c r="AM14" s="68"/>
@@ -8721,49 +8777,49 @@
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="27"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="106" t="s">
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="108"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="106" t="s">
+      <c r="L15" s="112"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="108"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="106" t="s">
+      <c r="O15" s="111"/>
+      <c r="P15" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="69" t="s">
         <v>35</v>
-      </c>
-      <c r="O15" s="107"/>
-      <c r="P15" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="69" t="s">
-        <v>36</v>
       </c>
       <c r="T15" s="70"/>
       <c r="U15" s="71"/>
-      <c r="V15" s="103" t="s">
+      <c r="V15" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="108"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="56" t="s">
         <v>37</v>
-      </c>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="56" t="s">
-        <v>38</v>
       </c>
       <c r="AD15" s="26"/>
       <c r="AG15" s="52"/>
@@ -8801,7 +8857,7 @@
       <c r="AD16" s="26"/>
       <c r="AG16" s="52"/>
       <c r="AJ16" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="12.75" customHeight="1">
@@ -8837,7 +8893,7 @@
       <c r="AD17" s="26"/>
       <c r="AG17" s="52"/>
       <c r="AK17" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="12.75" customHeight="1">
@@ -8906,7 +8962,7 @@
       <c r="AD19" s="26"/>
       <c r="AG19" s="52"/>
       <c r="AJ19" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="12.75" customHeight="1">
@@ -8942,7 +8998,7 @@
       <c r="AD20" s="26"/>
       <c r="AG20" s="52"/>
       <c r="AK20" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="12.75" customHeight="1">
@@ -9011,7 +9067,7 @@
       <c r="AD22" s="26"/>
       <c r="AG22" s="52"/>
       <c r="AJ22" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="12.75" customHeight="1">
@@ -9047,7 +9103,7 @@
       <c r="AD23" s="26"/>
       <c r="AG23" s="52"/>
       <c r="AK23" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="12.75" customHeight="1">
@@ -9116,7 +9172,7 @@
       <c r="AD25" s="26"/>
       <c r="AG25" s="52"/>
       <c r="AJ25" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="12.75" customHeight="1">
@@ -9152,7 +9208,7 @@
       <c r="AD26" s="26"/>
       <c r="AG26" s="52"/>
       <c r="AK26" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="12.75" customHeight="1">
@@ -9648,7 +9704,7 @@
       <c r="AA41" s="60"/>
       <c r="AB41" s="62"/>
       <c r="AC41" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD41" s="26"/>
       <c r="AG41" s="52"/>
@@ -9743,16 +9799,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="AF3:AG4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="B15:C15"/>
@@ -9768,6 +9814,16 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="P14:R14"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="AD3:AE4"/>
+    <mergeCell ref="AF3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9798,6 +9854,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3078" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" altText="BB（１０桁まで）">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>21</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -9806,6 +9884,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF7BF1D-B477-4EE2-A6FA-CBEE925D8718}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10264,32 +10343,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.2">
       <c r="A1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -10297,10 +10376,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>60</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13">
@@ -10315,28 +10394,28 @@
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>62</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="13">
         <v>1234</v>
       </c>
       <c r="F6" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="17">
@@ -10349,17 +10428,17 @@
     <row r="8" spans="1:6">
       <c r="A8" s="114"/>
       <c r="B8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="66">
         <v>1234</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10367,121 +10446,121 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39.6">
       <c r="A13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39.6">
       <c r="A14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.4">
       <c r="A18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.4">
       <c r="A19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="21">
         <v>0.79484953703703709</v>
@@ -10489,17 +10568,17 @@
     </row>
     <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="22">
         <v>0.79484953703703709</v>
@@ -10507,12 +10586,12 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6">
